--- a/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC40.xlsx
+++ b/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC40.xlsx
@@ -520,9 +520,6 @@
     <t>Horizontal</t>
   </si>
   <si>
-    <t>CN_08_01_REC40</t>
-  </si>
-  <si>
     <t>Granos de quinua</t>
   </si>
   <si>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>Peces arrecife coral</t>
+  </si>
+  <si>
+    <t>CN_03_04_REC40</t>
   </si>
 </sst>
 </file>
@@ -2264,7 +2264,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2393,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>39</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC40_IMG01.jpg</v>
+        <v>CN_03_04_REC40_IMG01.jpg</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2495,7 +2495,7 @@
         <v/>
       </c>
       <c r="J10" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC40_IMG02.jpg</v>
+        <v>CN_03_04_REC40_IMG02.jpg</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2534,7 +2534,7 @@
         <v/>
       </c>
       <c r="J11" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC40_IMG03.jpg</v>
+        <v>CN_03_04_REC40_IMG03.jpg</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2573,7 +2573,7 @@
         <v/>
       </c>
       <c r="J12" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC40_IMG04.jpg</v>
+        <v>CN_03_04_REC40_IMG04.jpg</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2612,7 +2612,7 @@
         <v/>
       </c>
       <c r="J13" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC40_IMG05.jpg</v>
+        <v>CN_03_04_REC40_IMG05.jpg</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2651,7 +2651,7 @@
         <v/>
       </c>
       <c r="J14" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC40_IMG06.jpg</v>
+        <v>CN_03_04_REC40_IMG06.jpg</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2690,7 +2690,7 @@
         <v/>
       </c>
       <c r="J15" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K15" s="21"/>
     </row>
